--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3737.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3737.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.196170920247596</v>
+        <v>0.8695881366729736</v>
       </c>
       <c r="B1">
-        <v>2.216544996054373</v>
+        <v>3.601375102996826</v>
       </c>
       <c r="C1">
-        <v>5.111773680594215</v>
+        <v>1.955960512161255</v>
       </c>
       <c r="D1">
-        <v>3.33591831260237</v>
+        <v>1.075894951820374</v>
       </c>
       <c r="E1">
-        <v>1.208286371589105</v>
+        <v>1.13348126411438</v>
       </c>
     </row>
   </sheetData>
